--- a/Team6_Identify_New_Bikes/Manual Testing Report/Manual Testing Report.xlsx
+++ b/Team6_Identify_New_Bikes/Manual Testing Report/Manual Testing Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="TEST SCENARIOS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="148">
   <si>
     <t>Website Launch</t>
   </si>
@@ -270,27 +270,6 @@
     <t xml:space="preserve">The error message "Couldn't find your Google Account" is displayed on the screen. </t>
   </si>
   <si>
-    <t>Verifying whether the appropriate error message is displayed when the valid email id but invalid password is entered.</t>
-  </si>
-  <si>
-    <t>3) Enter a valid E-Mail ID and click on the Next button.</t>
-  </si>
-  <si>
-    <t>A new page should open asking the user to enter the password.</t>
-  </si>
-  <si>
-    <t>A new page opens asking the user to enter the password.</t>
-  </si>
-  <si>
-    <t>4) Enter an invalid Google account password and click on Next.</t>
-  </si>
-  <si>
-    <t>The error message "Wrong password. Try again or click Forgot password to reset it" should be displayed on the screen.</t>
-  </si>
-  <si>
-    <t>The error message "Wrong password. Try again or click Forgot password to reset it" is displayed on the screen.</t>
-  </si>
-  <si>
     <t>TC_017</t>
   </si>
   <si>
@@ -482,6 +461,23 @@
   </si>
   <si>
     <t>Requirement Description</t>
+  </si>
+  <si>
+    <t>Checking whether title matches with actual title of zigwheels.com</t>
+  </si>
+  <si>
+    <t>Title should be matched with the actual title.</t>
+  </si>
+  <si>
+    <t>Title is matched with the actual title.</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_008
+TC_009
+</t>
   </si>
 </sst>
 </file>
@@ -620,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -662,9 +658,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -695,12 +688,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -708,19 +695,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -749,6 +724,42 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1033,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1048,20 +1059,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>137</v>
+      <c r="A1" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1072,93 +1083,93 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="E3" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>97</v>
+      <c r="D5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="47"/>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="47"/>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="47"/>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="47"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
@@ -1173,9 +1184,6 @@
       <c r="A15" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1186,1174 +1194,1173 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7265625" style="35" customWidth="1"/>
-    <col min="4" max="5" width="35.7265625" style="18" customWidth="1"/>
-    <col min="6" max="7" width="25.7265625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7265625" style="28" customWidth="1"/>
+    <col min="4" max="5" width="35.7265625" style="17" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="I1" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="J1" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="3" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>105</v>
+      <c r="A3" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="39"/>
     </row>
     <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="C7" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="19" t="s">
+      <c r="I7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="39"/>
     </row>
     <row r="9" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="29" t="s">
+      <c r="I9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>106</v>
+      <c r="A11" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="C11" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="19" t="s">
+      <c r="I11" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="39"/>
     </row>
     <row r="13" spans="1:10" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="C13" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="39"/>
     </row>
     <row r="15" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="8" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="49"/>
+      <c r="B17" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="49"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="G18" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="1:10" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="49"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" ht="66.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="21" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
-        <v>108</v>
+      <c r="A22" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="19" t="s">
+      <c r="I22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="22"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="23" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="19" t="s">
+      <c r="I24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="25" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="22" t="s">
+      <c r="F25" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="19" t="s">
+      <c r="I25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="14"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="22"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:10" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="23" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="22" t="s">
+      <c r="F27" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="19" t="s">
+      <c r="I27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="25" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" s="19" t="s">
+      <c r="I28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="14"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="22" t="s">
+      <c r="F30" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J30" s="19" t="s">
+      <c r="I30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="25" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="19" t="s">
+      <c r="I31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="25" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="19" t="s">
+      <c r="I32" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="14"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="29"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="14"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="19" t="s">
+      <c r="I34" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="14"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="29"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="23" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" s="19" t="s">
+      <c r="I36" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="21" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J37" s="19" t="s">
+      <c r="I37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="14"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="23" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="19" t="s">
+      <c r="I39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="83.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="21" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="19" t="s">
+      <c r="I40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="14"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="29"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:11" ht="55.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="14"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="19" t="s">
+      <c r="I42" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="14"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="29"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:11" ht="55.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="23" t="s">
+      <c r="A44" s="39"/>
+      <c r="B44" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="31" t="s">
+      <c r="I44" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
     </row>
     <row r="46" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="14"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="29"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:11" ht="55.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="23" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="19" t="s">
+      <c r="I47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
       <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:10" s="8" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="28" t="s">
+      <c r="F50" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="H50" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="19" t="s">
+      <c r="I50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="28" t="s">
+      <c r="B51" s="38"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F51" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="28" t="s">
+      <c r="G51" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H51" s="30"/>
-      <c r="I51" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="19" t="s">
+      <c r="H51" s="42"/>
+      <c r="I51" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="28" t="s">
+      <c r="B52" s="38"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="28" t="s">
+      <c r="G52" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="19" t="s">
+      <c r="H52" s="42"/>
+      <c r="I52" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="14"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:10" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="A54" s="48"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="1:10" ht="61.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" s="23"/>
-      <c r="I55" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J55" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="A55" s="48"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="40"/>
     </row>
     <row r="56" spans="1:10" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="A56" s="48"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="40"/>
     </row>
     <row r="57" spans="1:10" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="29" t="s">
-        <v>8</v>
-      </c>
+      <c r="A57" s="48"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="48">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="H54:H57"/>
     <mergeCell ref="B54:B57"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="A22:A48"/>
-    <mergeCell ref="A50:A57"/>
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B30:B32"/>
@@ -2363,43 +2370,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2411,307 +2381,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="29" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.1796875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>139</v>
+      <c r="A1" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45">
+        <v>2</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A9" s="45">
+        <v>3</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="45">
+        <v>4</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="45">
+        <v>5</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
-        <v>2</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
-        <v>3</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
-        <v>4</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32">
-        <v>5</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="23" t="s">
+      <c r="D25" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="34" t="s">
-        <v>109</v>
-      </c>
       <c r="E25" s="22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="22" t="s">
-        <v>91</v>
-      </c>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="B25:B26"/>
@@ -2725,6 +2685,14 @@
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
